--- a/fhir/ValueSet-encounter-class-valueset.xlsx
+++ b/fhir/ValueSet-encounter-class-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-21T10:41:55+01:00</t>
+    <t>2025-09-21T14:01:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ValueSet-encounter-class-valueset.xlsx
+++ b/fhir/ValueSet-encounter-class-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-21T14:01:48+01:00</t>
+    <t>2025-09-21T15:47:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ValueSet-encounter-class-valueset.xlsx
+++ b/fhir/ValueSet-encounter-class-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-21T15:47:17+01:00</t>
+    <t>2025-09-21T16:39:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
